--- a/InputData/elec/BBNPPTY/BAU Ban New Power Plants This Year.xlsx
+++ b/InputData/elec/BBNPPTY/BAU Ban New Power Plants This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BBNPPTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\VT\elec\BBNPPTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66582C1F-0C47-42E5-9226-B6D9CE2514BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{145AEB35-A69F-46D4-9B43-F8AF6C007FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="975" windowWidth="24360" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Source:</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>In the U.S., we use this to represent EPA 111 Rules. New coal without CCS is banned starting in</t>
+  </si>
+  <si>
+    <t>Vermont</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -215,6 +218,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -520,9 +524,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -531,12 +535,18 @@
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,42 +554,42 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -597,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:AE14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,25 +2332,25 @@
         <v>20</v>
       </c>
       <c r="B19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
@@ -2417,25 +2427,25 @@
         <v>21</v>
       </c>
       <c r="B20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
@@ -2512,25 +2522,25 @@
         <v>22</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
@@ -2607,25 +2617,25 @@
         <v>23</v>
       </c>
       <c r="B22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>

--- a/InputData/elec/BBNPPTY/BAU Ban New Power Plants This Year.xlsx
+++ b/InputData/elec/BBNPPTY/BAU Ban New Power Plants This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\VT\elec\BBNPPTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{145AEB35-A69F-46D4-9B43-F8AF6C007FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AAD730F-176B-4D07-891B-A4CD9B7DE855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="975" windowWidth="24360" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="730" windowWidth="9800" windowHeight="10070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Source:</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>This is a Boolean value that should be set to 0 or 1 in each year.</t>
-  </si>
-  <si>
-    <t>2028 and new combined cycle gas without CCS is banned starting in 2032.</t>
   </si>
   <si>
     <t>In the U.S., we use this to represent EPA 111 Rules. New coal without CCS is banned starting in</t>
@@ -526,27 +523,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="2" max="2" width="60.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="7">
-        <v>45440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,44 +551,44 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B6" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
@@ -607,17 +604,17 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.40625" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -712,7 +709,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -807,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -902,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -940,64 +937,64 @@
         <v>0</v>
       </c>
       <c r="M4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1187,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1377,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1662,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1757,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1852,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1947,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2042,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2137,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2232,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2327,30 +2324,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
@@ -2422,30 +2419,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
@@ -2517,30 +2514,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
@@ -2612,30 +2609,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
@@ -2707,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2802,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2897,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>

--- a/InputData/elec/BBNPPTY/BAU Ban New Power Plants This Year.xlsx
+++ b/InputData/elec/BBNPPTY/BAU Ban New Power Plants This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\VT\elec\BBNPPTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AAD730F-176B-4D07-891B-A4CD9B7DE855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C431753-EF97-413D-87DE-2149915843C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="730" windowWidth="9800" windowHeight="10070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="1140" windowWidth="21240" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -523,16 +523,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.86328125" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -540,10 +540,10 @@
         <v>34</v>
       </c>
       <c r="C1" s="7">
-        <v>45467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,42 +551,42 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2028</v>
       </c>
@@ -604,17 +604,17 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:AE4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.40625" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -709,7 +709,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2324,33 +2324,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
         <v>0</v>
@@ -2419,33 +2419,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5">
         <v>0</v>
@@ -2514,33 +2514,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
         <v>0</v>
@@ -2609,33 +2609,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
         <v>0</v>
@@ -2704,33 +2704,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
@@ -2799,33 +2799,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
@@ -2894,33 +2894,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="5">
         <v>0</v>
